--- a/data/trans_orig/P23_1_R_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_R_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>207828</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>180715</v>
+        <v>184858</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>231775</v>
+        <v>236492</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2758228978933808</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2398400890017343</v>
+        <v>0.2453388691294238</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3076055927629573</v>
+        <v>0.313865478235053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -763,19 +763,19 @@
         <v>122604</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>105061</v>
+        <v>103366</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145786</v>
+        <v>144162</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1235600377313674</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1058803754986472</v>
+        <v>0.1041717908102026</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1469223655803636</v>
+        <v>0.1452859049547996</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>320</v>
@@ -784,19 +784,19 @@
         <v>330432</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>298959</v>
+        <v>296635</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>363509</v>
+        <v>363047</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1892782031281809</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1712496888399824</v>
+        <v>0.169918770036954</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2082252581010424</v>
+        <v>0.2079607854655888</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>545654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>521707</v>
+        <v>516990</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>572767</v>
+        <v>568624</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7241771021066192</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6923944072370427</v>
+        <v>0.686134521764947</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7601599109982656</v>
+        <v>0.7546611308705762</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>770</v>
@@ -834,19 +834,19 @@
         <v>869662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>846480</v>
+        <v>848104</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>887205</v>
+        <v>888900</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8764399622686326</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8530776344196365</v>
+        <v>0.8547140950452004</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8941196245013527</v>
+        <v>0.8958282091897974</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1331</v>
@@ -855,19 +855,19 @@
         <v>1415316</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1382239</v>
+        <v>1382701</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1446789</v>
+        <v>1449113</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8107217968718191</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7917747418989575</v>
+        <v>0.7920392145344112</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8287503111600175</v>
+        <v>0.830081229963046</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>756395</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>707150</v>
+        <v>714985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>796441</v>
+        <v>799261</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3642845709091761</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3405679423370485</v>
+        <v>0.3443410322870161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3835709620885515</v>
+        <v>0.3849293113382365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>599</v>
@@ -980,19 +980,19 @@
         <v>619207</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>577948</v>
+        <v>573289</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>666359</v>
+        <v>660292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3117569463969659</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2909842591196969</v>
+        <v>0.2886385870379487</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3354969175507826</v>
+        <v>0.3324424201732579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1300</v>
@@ -1001,19 +1001,19 @@
         <v>1375601</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1317291</v>
+        <v>1317274</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1438516</v>
+        <v>1442723</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3386038943143047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.324250913202916</v>
+        <v>0.324246514727096</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3540903582896766</v>
+        <v>0.3551259140608671</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1319990</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1279944</v>
+        <v>1277124</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1369235</v>
+        <v>1361400</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6357154290908239</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6164290379114484</v>
+        <v>0.6150706886617633</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6594320576629514</v>
+        <v>0.6556589677129838</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1307</v>
@@ -1051,19 +1051,19 @@
         <v>1366977</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1319825</v>
+        <v>1325892</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1408236</v>
+        <v>1412895</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6882430536030341</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6645030824492174</v>
+        <v>0.6675575798267421</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7090157408803032</v>
+        <v>0.7113614129620514</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2558</v>
@@ -1072,19 +1072,19 @@
         <v>2686967</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2624052</v>
+        <v>2619845</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2745277</v>
+        <v>2745294</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6613961056856953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6459096417103235</v>
+        <v>0.644874085939133</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.675749086797084</v>
+        <v>0.675753485272904</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>118286</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>97023</v>
+        <v>98878</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>137117</v>
+        <v>139949</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2167139450946821</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1777582944159439</v>
+        <v>0.1811562880571178</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2512150436693375</v>
+        <v>0.2564039588709265</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>99</v>
@@ -1197,19 +1197,19 @@
         <v>102354</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84827</v>
+        <v>82628</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122609</v>
+        <v>120937</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1867055691372134</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1547337511214142</v>
+        <v>0.1507223139464115</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2236523747818998</v>
+        <v>0.2206022392513097</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -1218,19 +1218,19 @@
         <v>220640</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>194979</v>
+        <v>195392</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>246606</v>
+        <v>246407</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2016768638046521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1782215086704764</v>
+        <v>0.1785989069806058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2254116848425455</v>
+        <v>0.225229004668514</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>427528</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408697</v>
+        <v>405865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>448791</v>
+        <v>446936</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.783286054905318</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7487849563306626</v>
+        <v>0.7435960411290736</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8222417055840561</v>
+        <v>0.8188437119428822</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>426</v>
@@ -1268,19 +1268,19 @@
         <v>445859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>425604</v>
+        <v>427276</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463386</v>
+        <v>465585</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8132944308627866</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7763476252181003</v>
+        <v>0.7793977607486902</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8452662488785858</v>
+        <v>0.8492776860535882</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>822</v>
@@ -1289,19 +1289,19 @@
         <v>873387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>847421</v>
+        <v>847620</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>899048</v>
+        <v>898635</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.798323136195348</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7745883151574546</v>
+        <v>0.774770995331486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8217784913295236</v>
+        <v>0.821401093019394</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>1082508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1030996</v>
+        <v>1029301</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1139499</v>
+        <v>1140443</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3206784258537317</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3054187924027151</v>
+        <v>0.3049165615361447</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3375610733808575</v>
+        <v>0.3378409658839782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>818</v>
@@ -1414,19 +1414,19 @@
         <v>844165</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>795953</v>
+        <v>795597</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>894485</v>
+        <v>896316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2393666569417422</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2256958571276005</v>
+        <v>0.2255950128371845</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2536351529474195</v>
+        <v>0.2541540845927509</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1823</v>
@@ -1435,19 +1435,19 @@
         <v>1926673</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1857513</v>
+        <v>1852700</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2005792</v>
+        <v>2001051</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2791332413201327</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2691133468645274</v>
+        <v>0.2684160357699701</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2905958591588667</v>
+        <v>0.2899089393498858</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2293173</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2236182</v>
+        <v>2235238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2344685</v>
+        <v>2346380</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6793215741462683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6624389266191424</v>
+        <v>0.6621590341160228</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6945812075972848</v>
+        <v>0.6950834384638555</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2503</v>
@@ -1485,19 +1485,19 @@
         <v>2682497</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2632177</v>
+        <v>2630346</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2730709</v>
+        <v>2731065</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7606333430582578</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7463648470525804</v>
+        <v>0.7458459154072491</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7743041428723996</v>
+        <v>0.7744049871628155</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4711</v>
@@ -1506,19 +1506,19 @@
         <v>4975670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4896551</v>
+        <v>4901292</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5044830</v>
+        <v>5049643</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7208667586798673</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7094041408411333</v>
+        <v>0.7100910606501143</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7308866531354726</v>
+        <v>0.7315839642300299</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>145352</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125676</v>
+        <v>125102</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>165804</v>
+        <v>166144</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2512437046040558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2172336910364824</v>
+        <v>0.216241360284075</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2865953511988206</v>
+        <v>0.2871831355670718</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>123</v>
@@ -1870,19 +1870,19 @@
         <v>78237</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>66591</v>
+        <v>65805</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>92589</v>
+        <v>91725</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09517476246970688</v>
+        <v>0.09517476246970685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08100716940672086</v>
+        <v>0.08005156119882167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1126337574463956</v>
+        <v>0.1115825442862992</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>280</v>
@@ -1891,19 +1891,19 @@
         <v>223589</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>202803</v>
+        <v>198576</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>252626</v>
+        <v>249442</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1596418359283367</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1448009077856451</v>
+        <v>0.1417822539747514</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1803744033548081</v>
+        <v>0.1781009732877555</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>433177</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412725</v>
+        <v>412385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>452853</v>
+        <v>453427</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7487562953959442</v>
+        <v>0.7487562953959443</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7134046488011793</v>
+        <v>0.7128168644329281</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7827663089635175</v>
+        <v>0.7837586397159251</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1304</v>
@@ -1941,19 +1941,19 @@
         <v>743801</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>729449</v>
+        <v>730313</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>755447</v>
+        <v>756233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9048252375302931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8873662425536043</v>
+        <v>0.8884174557137002</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9189928305932791</v>
+        <v>0.9199484388011783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1838</v>
@@ -1962,19 +1962,19 @@
         <v>1176978</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1147941</v>
+        <v>1151125</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1197764</v>
+        <v>1201991</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8403581640716634</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8196255966451921</v>
+        <v>0.8218990267122447</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8551990922143551</v>
+        <v>0.8582177460252489</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>578238</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>532842</v>
+        <v>533621</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>623841</v>
+        <v>622114</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2594922237560746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2391200580984714</v>
+        <v>0.2394700460913781</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2799575686464034</v>
+        <v>0.279182493227365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>602</v>
@@ -2087,19 +2087,19 @@
         <v>459324</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>429494</v>
+        <v>422267</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>497493</v>
+        <v>493037</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2116715113299025</v>
+        <v>0.2116715113299026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1979250203613874</v>
+        <v>0.194594445799534</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2292613005540657</v>
+        <v>0.2272075208030337</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1108</v>
@@ -2108,19 +2108,19 @@
         <v>1037561</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>981195</v>
+        <v>983431</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1100614</v>
+        <v>1103671</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2358991203412797</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2230836633537085</v>
+        <v>0.2235919748766511</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2502346795101519</v>
+        <v>0.2509296502727461</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1650105</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1604502</v>
+        <v>1606229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1695501</v>
+        <v>1694722</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7405077762439255</v>
+        <v>0.7405077762439253</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7200424313535968</v>
+        <v>0.7208175067726351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7608799419015286</v>
+        <v>0.7605299539086219</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2317</v>
@@ -2158,19 +2158,19 @@
         <v>1710660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1672491</v>
+        <v>1676947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1740490</v>
+        <v>1747717</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7883284886700975</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.770738699445934</v>
+        <v>0.7727924791969663</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8020749796386129</v>
+        <v>0.8054055542004659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3801</v>
@@ -2179,19 +2179,19 @@
         <v>3360766</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3297713</v>
+        <v>3294656</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3417132</v>
+        <v>3414896</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7641008796587202</v>
+        <v>0.7641008796587203</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7497653204898481</v>
+        <v>0.7490703497272539</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7769163366462917</v>
+        <v>0.7764080251233489</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>97803</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>80779</v>
+        <v>78426</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118957</v>
+        <v>118831</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1374430987578466</v>
+        <v>0.1374430987578465</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1135197329830837</v>
+        <v>0.1102121903939133</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1671708392246255</v>
+        <v>0.1669949805781593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -2304,19 +2304,19 @@
         <v>91530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75711</v>
+        <v>76222</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>108514</v>
+        <v>109134</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1249698909139357</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1033724915203624</v>
+        <v>0.1040695708869811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1481587378121223</v>
+        <v>0.1490061156860952</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>214</v>
@@ -2325,19 +2325,19 @@
         <v>189332</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>162237</v>
+        <v>164465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>214043</v>
+        <v>215951</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1311165455230952</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1123523079807845</v>
+        <v>0.1138956080209003</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1482291960074744</v>
+        <v>0.1495505700675912</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>613784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>592630</v>
+        <v>592756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>630808</v>
+        <v>633161</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8625569012421535</v>
+        <v>0.8625569012421533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8328291607753749</v>
+        <v>0.833005019421841</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8864802670169165</v>
+        <v>0.8897878096060867</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>881</v>
@@ -2375,19 +2375,19 @@
         <v>640884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623900</v>
+        <v>623280</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>656703</v>
+        <v>656192</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8750301090860643</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8518412621878776</v>
+        <v>0.8509938843139048</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8966275084796376</v>
+        <v>0.8959304291130189</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1470</v>
@@ -2396,19 +2396,19 @@
         <v>1254669</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1229958</v>
+        <v>1228050</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1281764</v>
+        <v>1279536</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8688834544769045</v>
+        <v>0.8688834544769048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8517708039925257</v>
+        <v>0.8504494299324089</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8876476920192158</v>
+        <v>0.8861043919790998</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>821392</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>763331</v>
+        <v>764963</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>879150</v>
+        <v>880964</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2334522504875233</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2169503658366851</v>
+        <v>0.2174143313959827</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2498677739526278</v>
+        <v>0.2503833712103864</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>847</v>
@@ -2521,19 +2521,19 @@
         <v>629091</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>588541</v>
+        <v>586111</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>671343</v>
+        <v>667677</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1689090079199585</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1580214649862356</v>
+        <v>0.1573691544243875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1802535182463539</v>
+        <v>0.1792693646555501</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1602</v>
@@ -2542,19 +2542,19 @@
         <v>1450483</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1382093</v>
+        <v>1380780</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1525742</v>
+        <v>1518543</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2002628769329316</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1908205014249134</v>
+        <v>0.1906393024959097</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2106535786191435</v>
+        <v>0.2096596043909808</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>2697067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2639309</v>
+        <v>2637495</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2755128</v>
+        <v>2753496</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7665477495124766</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7501322260473727</v>
+        <v>0.7496166287896135</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.783049634163315</v>
+        <v>0.7825856686040173</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4502</v>
@@ -2592,19 +2592,19 @@
         <v>3095344</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3053092</v>
+        <v>3056758</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3135894</v>
+        <v>3138324</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8310909920800414</v>
+        <v>0.8310909920800416</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.819746481753646</v>
+        <v>0.82073063534445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8419785350137643</v>
+        <v>0.8426308455756126</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7109</v>
@@ -2613,19 +2613,19 @@
         <v>5792412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5717153</v>
+        <v>5724352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5860802</v>
+        <v>5862115</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7997371230670683</v>
+        <v>0.7997371230670686</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7893464213808561</v>
+        <v>0.7903403956090189</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8091794985750864</v>
+        <v>0.8093606975040901</v>
       </c>
     </row>
     <row r="15">
